--- a/utility/optbs/template/buku_barang_pakai_habis.xlsx
+++ b/utility/optbs/template/buku_barang_pakai_habis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>LAMPIRAN 11</t>
   </si>
@@ -127,25 +127,37 @@
     <t>[a.jumlah_keluar]</t>
   </si>
   <si>
+    <t>Mengetahui</t>
+  </si>
+  <si>
     <t>Kota Pekalongan, [b.tanggal_cetak]</t>
   </si>
   <si>
-    <t>ATASAN LANGSUNG,</t>
-  </si>
-  <si>
-    <t>PENYIMPAN BARANG,</t>
-  </si>
-  <si>
-    <t>(Kasubbag. Umum / Keuangan / Sekretaris Kelurahan)</t>
+    <t>An Pengguna / Kuasa Pengguna Barang</t>
+  </si>
+  <si>
+    <t>Pengurus Barang</t>
+  </si>
+  <si>
+    <t>Pembantu Pengurus Barang</t>
+  </si>
+  <si>
+    <t>Pejabat Penatausahaan Pengguna Barang</t>
   </si>
   <si>
     <t>([b.nama_atasan])</t>
   </si>
   <si>
+    <t>……………………………………</t>
+  </si>
+  <si>
     <t>([b.nama_penyimpan_barang])</t>
   </si>
   <si>
     <t>NIP. [b.nip_atasan]</t>
+  </si>
+  <si>
+    <t>NIP ………………………………</t>
   </si>
   <si>
     <t>NIP. [b.nip_penyimpan_barang]</t>
@@ -308,7 +320,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -369,10 +381,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -383,6 +391,30 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -404,25 +436,25 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13:M13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.24223602484472"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3354037267081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.639751552795"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0124223602484"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7888198757764"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.4782608695652"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.2670807453416"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.1614906832298"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.8074534161491"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.5031055900621"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.776397515528"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.9937888198758"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.776397515528"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9689440993789"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3416149068323"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.8074534161491"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.7639751552795"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4906832298137"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.1304347826087"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.832298136646"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.776397515528"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -696,148 +728,126 @@
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="15"/>
+      <c r="K16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L16" s="15"/>
       <c r="M16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="16"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="F17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="15"/>
+      <c r="K17" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="L17" s="15"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="18"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="16"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="15"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="15"/>
       <c r="M18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="18"/>
+      <c r="A19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="18"/>
+      <c r="A20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="A21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="K21" s="18"/>
       <c r="M21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="A22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="K22" s="18"/>
       <c r="M22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="16"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
+      <c r="A23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="K23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="20"/>
       <c r="M23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="16"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="A24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="22"/>
+      <c r="K24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="22"/>
       <c r="M24" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
@@ -861,6 +871,9 @@
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="1.575" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
